--- a/Code/Results/Cases/Case_5_128/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_128/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.28580268638768</v>
+        <v>10.15175217277646</v>
       </c>
       <c r="C2">
-        <v>11.67312090829553</v>
+        <v>7.591137565417178</v>
       </c>
       <c r="D2">
-        <v>5.370632493845901</v>
+        <v>6.636188441705966</v>
       </c>
       <c r="E2">
-        <v>29.33951283430113</v>
+        <v>16.31504681110695</v>
       </c>
       <c r="F2">
-        <v>39.77677164845567</v>
+        <v>36.77115165189981</v>
       </c>
       <c r="I2">
-        <v>27.6500877975558</v>
+        <v>28.50331753538431</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.25731692209764</v>
+        <v>11.09120877063381</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.3519048891447</v>
+        <v>9.947993642223656</v>
       </c>
       <c r="C3">
-        <v>10.81705058272773</v>
+        <v>7.305578535318016</v>
       </c>
       <c r="D3">
-        <v>5.375419766105144</v>
+        <v>6.626819512963815</v>
       </c>
       <c r="E3">
-        <v>27.15060590529263</v>
+        <v>15.39923975154763</v>
       </c>
       <c r="F3">
-        <v>37.91272261995631</v>
+        <v>36.2728947711697</v>
       </c>
       <c r="I3">
-        <v>26.67186205138944</v>
+        <v>28.26890353977672</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.34994493501832</v>
+        <v>10.93826670383469</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.7498908647416</v>
+        <v>9.825094547100498</v>
       </c>
       <c r="C4">
-        <v>10.266903782432</v>
+        <v>7.127311570613896</v>
       </c>
       <c r="D4">
-        <v>5.378824393156707</v>
+        <v>6.620946187909651</v>
       </c>
       <c r="E4">
-        <v>25.74982167934273</v>
+        <v>14.81373973783727</v>
       </c>
       <c r="F4">
-        <v>36.75484548280621</v>
+        <v>35.97052100670501</v>
       </c>
       <c r="I4">
-        <v>26.07273402787477</v>
+        <v>28.12803250588032</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.76611075066181</v>
+        <v>10.84749309914045</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.49724279127267</v>
+        <v>9.775654383845565</v>
       </c>
       <c r="C5">
-        <v>10.03640754856376</v>
+        <v>7.054060930337483</v>
       </c>
       <c r="D5">
-        <v>5.380315648854487</v>
+        <v>6.618521889491576</v>
       </c>
       <c r="E5">
-        <v>25.16421421866121</v>
+        <v>14.56958767599031</v>
       </c>
       <c r="F5">
-        <v>36.27999455639852</v>
+        <v>35.84831636770156</v>
       </c>
       <c r="I5">
-        <v>25.82908196108438</v>
+        <v>28.0714312419368</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.52135890703754</v>
+        <v>10.81134135927841</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.45484485062299</v>
+        <v>9.767486197857735</v>
       </c>
       <c r="C6">
-        <v>9.997748974342338</v>
+        <v>7.041865241695828</v>
       </c>
       <c r="D6">
-        <v>5.380569185760047</v>
+        <v>6.618117457203462</v>
       </c>
       <c r="E6">
-        <v>25.06606837377628</v>
+        <v>14.5287199321262</v>
       </c>
       <c r="F6">
-        <v>36.20097637430042</v>
+        <v>35.8280891667651</v>
       </c>
       <c r="I6">
-        <v>25.78865780804096</v>
+        <v>28.06208225300221</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.48030202212956</v>
+        <v>10.80539053999715</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.74651337992763</v>
+        <v>9.824425065198925</v>
       </c>
       <c r="C7">
-        <v>10.26382094551664</v>
+        <v>7.126325954982144</v>
       </c>
       <c r="D7">
-        <v>5.378844100608618</v>
+        <v>6.620913618670713</v>
       </c>
       <c r="E7">
-        <v>25.74198442765763</v>
+        <v>14.81046911098311</v>
       </c>
       <c r="F7">
-        <v>36.74845311987109</v>
+        <v>35.9688686447764</v>
       </c>
       <c r="I7">
-        <v>26.06944585788859</v>
+        <v>28.1272658575191</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.76283776326815</v>
+        <v>10.8470020797726</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.96964762920609</v>
+        <v>10.08108961371358</v>
       </c>
       <c r="C8">
-        <v>11.3829466092446</v>
+        <v>7.493360986721551</v>
       </c>
       <c r="D8">
-        <v>5.372178201472817</v>
+        <v>6.632982797120166</v>
       </c>
       <c r="E8">
-        <v>28.59624993717357</v>
+        <v>16.00423940336702</v>
       </c>
       <c r="F8">
-        <v>39.13699558459138</v>
+        <v>36.59868708436403</v>
       </c>
       <c r="I8">
-        <v>27.31254380806367</v>
+        <v>28.42187816365396</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.94992089929329</v>
+        <v>11.03785534076227</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.14782658719259</v>
+        <v>10.59815332256745</v>
       </c>
       <c r="C9">
-        <v>13.39016637037944</v>
+        <v>8.184654637037099</v>
       </c>
       <c r="D9">
-        <v>5.363479156001466</v>
+        <v>6.655715116606892</v>
       </c>
       <c r="E9">
-        <v>33.76803277855572</v>
+        <v>18.17758843761273</v>
       </c>
       <c r="F9">
-        <v>43.70515661899246</v>
+        <v>37.85662320908615</v>
       </c>
       <c r="I9">
-        <v>29.75899566237844</v>
+        <v>29.02226980716632</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.07210830772823</v>
+        <v>11.43464489911193</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.62391628211139</v>
+        <v>10.98145360590129</v>
       </c>
       <c r="C10">
-        <v>14.76188850876679</v>
+        <v>8.669085516849917</v>
       </c>
       <c r="D10">
-        <v>5.360871993059602</v>
+        <v>6.67187837026762</v>
       </c>
       <c r="E10">
-        <v>37.34857736427839</v>
+        <v>19.80365641746459</v>
       </c>
       <c r="F10">
-        <v>46.98597619946375</v>
+        <v>38.78754424259932</v>
       </c>
       <c r="I10">
-        <v>31.56102849923744</v>
+        <v>29.47493120445546</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.51586589675928</v>
+        <v>11.73669980367531</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.27106263463149</v>
+        <v>11.15556761358679</v>
       </c>
       <c r="C11">
-        <v>15.36650409862671</v>
+        <v>8.883309059300874</v>
       </c>
       <c r="D11">
-        <v>5.360818423095952</v>
+        <v>6.679121392432121</v>
       </c>
       <c r="E11">
-        <v>38.9406502635663</v>
+        <v>20.50222134586855</v>
       </c>
       <c r="F11">
-        <v>48.46363643215648</v>
+        <v>39.21098043157223</v>
       </c>
       <c r="I11">
-        <v>32.38286890055819</v>
+        <v>29.68286424505762</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.15025372543465</v>
+        <v>11.87571481866998</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.51287294450163</v>
+        <v>11.22138549805414</v>
       </c>
       <c r="C12">
-        <v>15.59295712816371</v>
+        <v>8.96347185735643</v>
       </c>
       <c r="D12">
-        <v>5.360993170218074</v>
+        <v>6.681848880390409</v>
       </c>
       <c r="E12">
-        <v>39.53932807686417</v>
+        <v>20.76087198558848</v>
       </c>
       <c r="F12">
-        <v>49.02136075107825</v>
+        <v>39.37119322328431</v>
       </c>
       <c r="I12">
-        <v>32.69455675018049</v>
+        <v>29.76184915611497</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.38752109854051</v>
+        <v>11.92853102948708</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.46093494984675</v>
+        <v>11.20721678304511</v>
       </c>
       <c r="C13">
-        <v>15.54429264565488</v>
+        <v>8.9462511108414</v>
       </c>
       <c r="D13">
-        <v>5.360946281564021</v>
+        <v>6.681262139194137</v>
       </c>
       <c r="E13">
-        <v>39.41055994726162</v>
+        <v>20.70542792865362</v>
       </c>
       <c r="F13">
-        <v>48.90132007164382</v>
+        <v>39.33669644997222</v>
       </c>
       <c r="I13">
-        <v>32.62740439951589</v>
+        <v>29.74482815217328</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.33654850639791</v>
+        <v>11.91714926070684</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.29102009127262</v>
+        <v>11.16098524004244</v>
       </c>
       <c r="C14">
-        <v>15.38518286679595</v>
+        <v>8.889923717012159</v>
       </c>
       <c r="D14">
-        <v>5.360828684367975</v>
+        <v>6.679346088097253</v>
       </c>
       <c r="E14">
-        <v>38.98998128968595</v>
+        <v>20.52361834643397</v>
       </c>
       <c r="F14">
-        <v>48.50955526735085</v>
+        <v>39.22416462248182</v>
       </c>
       <c r="I14">
-        <v>32.40850083427996</v>
+        <v>29.68935772435232</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.16983159057576</v>
+        <v>11.88005687099318</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.18652710542963</v>
+        <v>11.13264979017343</v>
       </c>
       <c r="C15">
-        <v>15.28740697638685</v>
+        <v>8.855294605755279</v>
       </c>
       <c r="D15">
-        <v>5.360783112206719</v>
+        <v>6.678170475090098</v>
       </c>
       <c r="E15">
-        <v>38.7318521914144</v>
+        <v>20.41148992871486</v>
       </c>
       <c r="F15">
-        <v>48.26936055091437</v>
+        <v>39.15521455182704</v>
       </c>
       <c r="I15">
-        <v>32.27448450928463</v>
+        <v>29.65541108466844</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.06733530848051</v>
+        <v>11.85735772757763</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.58115458994073</v>
+        <v>10.97006292632457</v>
       </c>
       <c r="C16">
-        <v>14.72200881155914</v>
+        <v>8.654955173816898</v>
       </c>
       <c r="D16">
-        <v>5.360900897374489</v>
+        <v>6.671402855880348</v>
       </c>
       <c r="E16">
-        <v>37.24388035284449</v>
+        <v>19.75717871070606</v>
       </c>
       <c r="F16">
-        <v>46.88913161934843</v>
+        <v>38.75985988446554</v>
       </c>
       <c r="I16">
-        <v>31.5073743582281</v>
+        <v>29.46137903951733</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.47397783701955</v>
+        <v>11.72764231236636</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.20371215246152</v>
+        <v>10.87019915457245</v>
       </c>
       <c r="C17">
-        <v>14.3703800763106</v>
+        <v>8.530422552459187</v>
       </c>
       <c r="D17">
-        <v>5.361284269542359</v>
+        <v>6.667223388641403</v>
       </c>
       <c r="E17">
-        <v>36.32235927755929</v>
+        <v>19.34526785555455</v>
       </c>
       <c r="F17">
-        <v>46.03877847900069</v>
+        <v>38.51722005245396</v>
       </c>
       <c r="I17">
-        <v>31.03741052782787</v>
+        <v>29.34283121471895</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.10441010484628</v>
+        <v>11.64843719397127</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.9843099821195</v>
+        <v>10.81274099451748</v>
       </c>
       <c r="C18">
-        <v>14.1662882243371</v>
+        <v>8.458219986730995</v>
       </c>
       <c r="D18">
-        <v>5.36160912050364</v>
+        <v>6.664809112956462</v>
       </c>
       <c r="E18">
-        <v>35.78879291075847</v>
+        <v>19.10447308472871</v>
       </c>
       <c r="F18">
-        <v>45.54825837334868</v>
+        <v>38.37766329313567</v>
       </c>
       <c r="I18">
-        <v>30.7672810879499</v>
+        <v>29.27483801834718</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.88972004159478</v>
+        <v>11.60303528837519</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.90962086819358</v>
+        <v>10.7932858390271</v>
       </c>
       <c r="C19">
-        <v>14.09686143819231</v>
+        <v>8.433677184982153</v>
       </c>
       <c r="D19">
-        <v>5.36173614562577</v>
+        <v>6.663989886885213</v>
       </c>
       <c r="E19">
-        <v>35.60750002112636</v>
+        <v>19.02227757645139</v>
       </c>
       <c r="F19">
-        <v>45.38192631190825</v>
+        <v>38.33041624344028</v>
       </c>
       <c r="I19">
-        <v>30.67584703630191</v>
+        <v>29.25185108178405</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.81665757570599</v>
+        <v>11.5876913241608</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.24412864311243</v>
+        <v>10.88083239359307</v>
       </c>
       <c r="C20">
-        <v>14.40800049789202</v>
+        <v>8.543739316717181</v>
       </c>
       <c r="D20">
-        <v>5.36123244541563</v>
+        <v>6.667669368414131</v>
       </c>
       <c r="E20">
-        <v>36.42081508020209</v>
+        <v>19.38951721170741</v>
       </c>
       <c r="F20">
-        <v>46.12944526754499</v>
+        <v>38.54305006859664</v>
       </c>
       <c r="I20">
-        <v>31.08741920777306</v>
+        <v>29.35543124451823</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.14396935583076</v>
+        <v>11.65685311165553</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.34101424005907</v>
+        <v>11.17456830442784</v>
       </c>
       <c r="C21">
-        <v>15.4319826607843</v>
+        <v>8.906495016207911</v>
       </c>
       <c r="D21">
-        <v>5.360857644951845</v>
+        <v>6.679909289755733</v>
       </c>
       <c r="E21">
-        <v>39.11362005002692</v>
+        <v>20.57717954842836</v>
       </c>
       <c r="F21">
-        <v>48.62467274826265</v>
+        <v>39.25722256270556</v>
       </c>
       <c r="I21">
-        <v>32.47278342538077</v>
+        <v>29.70564443693237</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.21887851353255</v>
+        <v>11.89094752541226</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.03909251255312</v>
+        <v>11.36583591518843</v>
       </c>
       <c r="C22">
-        <v>16.08679886091798</v>
+        <v>9.137958790976167</v>
       </c>
       <c r="D22">
-        <v>5.361769203161026</v>
+        <v>6.687819903982395</v>
       </c>
       <c r="E22">
-        <v>40.84965592603913</v>
+        <v>21.31912438952093</v>
       </c>
       <c r="F22">
-        <v>50.24500936729087</v>
+        <v>39.72314191584195</v>
       </c>
       <c r="I22">
-        <v>33.38110989920653</v>
+        <v>29.93593717192304</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.90428187776624</v>
+        <v>12.04493178158797</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.6681429481171</v>
+        <v>11.26384241929139</v>
       </c>
       <c r="C23">
-        <v>15.7385234458008</v>
+        <v>9.014958637815861</v>
       </c>
       <c r="D23">
-        <v>5.361164534587683</v>
+        <v>6.683605832078857</v>
       </c>
       <c r="E23">
-        <v>39.92487711529134</v>
+        <v>20.92625772293325</v>
       </c>
       <c r="F23">
-        <v>49.38102271291454</v>
+        <v>39.47458940734337</v>
       </c>
       <c r="I23">
-        <v>32.8959724119745</v>
+        <v>29.81291158756348</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.53993895932051</v>
+        <v>11.9626754450661</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.22586385854216</v>
+        <v>10.87602524075133</v>
       </c>
       <c r="C24">
-        <v>14.39099835586313</v>
+        <v>8.537720692802237</v>
       </c>
       <c r="D24">
-        <v>5.361255552165929</v>
+        <v>6.667467776618668</v>
       </c>
       <c r="E24">
-        <v>36.37631503780356</v>
+        <v>19.36952448323944</v>
       </c>
       <c r="F24">
-        <v>46.08845994332996</v>
+        <v>38.53137249501634</v>
       </c>
       <c r="I24">
-        <v>31.06481011180623</v>
+        <v>29.34973426441891</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.12609155414302</v>
+        <v>11.6530478529569</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.58118611242225</v>
+        <v>10.45732393523934</v>
       </c>
       <c r="C25">
-        <v>12.86614165390889</v>
+        <v>8.001364724351724</v>
       </c>
       <c r="D25">
-        <v>5.365259745552503</v>
+        <v>6.649662225365259</v>
       </c>
       <c r="E25">
-        <v>32.41065330497116</v>
+        <v>17.59255190232296</v>
       </c>
       <c r="F25">
-        <v>42.48267416665779</v>
+        <v>37.51461691874086</v>
       </c>
       <c r="I25">
-        <v>29.09649406570541</v>
+        <v>28.85765071692624</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.51907031284344</v>
+        <v>11.3252195877032</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_128/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_128/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.15175217277646</v>
+        <v>13.28580268638771</v>
       </c>
       <c r="C2">
-        <v>7.591137565417178</v>
+        <v>11.67312090829552</v>
       </c>
       <c r="D2">
-        <v>6.636188441705966</v>
+        <v>5.370632493845672</v>
       </c>
       <c r="E2">
-        <v>16.31504681110695</v>
+        <v>29.33951283430102</v>
       </c>
       <c r="F2">
-        <v>36.77115165189981</v>
+        <v>39.77677164845566</v>
       </c>
       <c r="I2">
-        <v>28.50331753538431</v>
+        <v>27.65008779755582</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.09120877063381</v>
+        <v>13.25731692209766</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.947993642223656</v>
+        <v>12.35190488914481</v>
       </c>
       <c r="C3">
-        <v>7.305578535318016</v>
+        <v>10.81705058272786</v>
       </c>
       <c r="D3">
-        <v>6.626819512963815</v>
+        <v>5.375419766105048</v>
       </c>
       <c r="E3">
-        <v>15.39923975154763</v>
+        <v>27.15060590529255</v>
       </c>
       <c r="F3">
-        <v>36.2728947711697</v>
+        <v>37.91272261995628</v>
       </c>
       <c r="I3">
-        <v>28.26890353977672</v>
+        <v>26.67186205138937</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.93826670383469</v>
+        <v>12.34994493501847</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.825094547100498</v>
+        <v>11.74989086474145</v>
       </c>
       <c r="C4">
-        <v>7.127311570613896</v>
+        <v>10.26690378243215</v>
       </c>
       <c r="D4">
-        <v>6.620946187909651</v>
+        <v>5.378824393156885</v>
       </c>
       <c r="E4">
-        <v>14.81373973783727</v>
+        <v>25.74982167934266</v>
       </c>
       <c r="F4">
-        <v>35.97052100670501</v>
+        <v>36.75484548280619</v>
       </c>
       <c r="I4">
-        <v>28.12803250588032</v>
+        <v>26.07273402787489</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.84749309914045</v>
+        <v>11.76611075066178</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.775654383845565</v>
+        <v>11.49724279127276</v>
       </c>
       <c r="C5">
-        <v>7.054060930337483</v>
+        <v>10.03640754856376</v>
       </c>
       <c r="D5">
-        <v>6.618521889491576</v>
+        <v>5.380315648854578</v>
       </c>
       <c r="E5">
-        <v>14.56958767599031</v>
+        <v>25.16421421866122</v>
       </c>
       <c r="F5">
-        <v>35.84831636770156</v>
+        <v>36.27999455639854</v>
       </c>
       <c r="I5">
-        <v>28.0714312419368</v>
+        <v>25.82908196108442</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.81134135927841</v>
+        <v>11.52135890703763</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.767486197857735</v>
+        <v>11.45484485062308</v>
       </c>
       <c r="C6">
-        <v>7.041865241695828</v>
+        <v>9.99774897434223</v>
       </c>
       <c r="D6">
-        <v>6.618117457203462</v>
+        <v>5.380569185760185</v>
       </c>
       <c r="E6">
-        <v>14.5287199321262</v>
+        <v>25.06606837377628</v>
       </c>
       <c r="F6">
-        <v>35.8280891667651</v>
+        <v>36.20097637430049</v>
       </c>
       <c r="I6">
-        <v>28.06208225300221</v>
+        <v>25.78865780804103</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.80539053999715</v>
+        <v>11.48030202212956</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.824425065198925</v>
+        <v>11.74651337992766</v>
       </c>
       <c r="C7">
-        <v>7.126325954982144</v>
+        <v>10.26382094551667</v>
       </c>
       <c r="D7">
-        <v>6.620913618670713</v>
+        <v>5.378844100608744</v>
       </c>
       <c r="E7">
-        <v>14.81046911098311</v>
+        <v>25.74198442765753</v>
       </c>
       <c r="F7">
-        <v>35.9688686447764</v>
+        <v>36.74845311987106</v>
       </c>
       <c r="I7">
-        <v>28.1272658575191</v>
+        <v>26.06944585788863</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.8470020797726</v>
+        <v>11.76283776326821</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.08108961371358</v>
+        <v>12.96964762920603</v>
       </c>
       <c r="C8">
-        <v>7.493360986721551</v>
+        <v>11.3829466092446</v>
       </c>
       <c r="D8">
-        <v>6.632982797120166</v>
+        <v>5.372178201473055</v>
       </c>
       <c r="E8">
-        <v>16.00423940336702</v>
+        <v>28.59624993717346</v>
       </c>
       <c r="F8">
-        <v>36.59868708436403</v>
+        <v>39.13699558459147</v>
       </c>
       <c r="I8">
-        <v>28.42187816365396</v>
+        <v>27.31254380806379</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.03785534076227</v>
+        <v>12.94992089929322</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.59815332256745</v>
+        <v>15.14782658719265</v>
       </c>
       <c r="C9">
-        <v>8.184654637037099</v>
+        <v>13.3901663703796</v>
       </c>
       <c r="D9">
-        <v>6.655715116606892</v>
+        <v>5.363479156001725</v>
       </c>
       <c r="E9">
-        <v>18.17758843761273</v>
+        <v>33.76803277855579</v>
       </c>
       <c r="F9">
-        <v>37.85662320908615</v>
+        <v>43.70515661899263</v>
       </c>
       <c r="I9">
-        <v>29.02226980716632</v>
+        <v>29.7589956623786</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.43464489911193</v>
+        <v>15.07210830772832</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.98145360590129</v>
+        <v>16.62391628211148</v>
       </c>
       <c r="C10">
-        <v>8.669085516849917</v>
+        <v>14.76188850876649</v>
       </c>
       <c r="D10">
-        <v>6.67187837026762</v>
+        <v>5.360871993059669</v>
       </c>
       <c r="E10">
-        <v>19.80365641746459</v>
+        <v>37.34857736427848</v>
       </c>
       <c r="F10">
-        <v>38.78754424259932</v>
+        <v>46.98597619946387</v>
       </c>
       <c r="I10">
-        <v>29.47493120445546</v>
+        <v>31.56102849923749</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.73669980367531</v>
+        <v>16.51586589675922</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.15556761358679</v>
+        <v>17.2710626346316</v>
       </c>
       <c r="C11">
-        <v>8.883309059300874</v>
+        <v>15.36650409862676</v>
       </c>
       <c r="D11">
-        <v>6.679121392432121</v>
+        <v>5.360818423095914</v>
       </c>
       <c r="E11">
-        <v>20.50222134586855</v>
+        <v>38.94065026356647</v>
       </c>
       <c r="F11">
-        <v>39.21098043157223</v>
+        <v>48.46363643215652</v>
       </c>
       <c r="I11">
-        <v>29.68286424505762</v>
+        <v>32.38286890055817</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.87571481866998</v>
+        <v>17.15025372543471</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.22138549805414</v>
+        <v>17.51287294450164</v>
       </c>
       <c r="C12">
-        <v>8.96347185735643</v>
+        <v>15.59295712816358</v>
       </c>
       <c r="D12">
-        <v>6.681848880390409</v>
+        <v>5.360993170218146</v>
       </c>
       <c r="E12">
-        <v>20.76087198558848</v>
+        <v>39.53932807686406</v>
       </c>
       <c r="F12">
-        <v>39.37119322328431</v>
+        <v>49.02136075107834</v>
       </c>
       <c r="I12">
-        <v>29.76184915611497</v>
+        <v>32.6945567501806</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.92853102948708</v>
+        <v>17.38752109854046</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.20721678304511</v>
+        <v>17.46093494984674</v>
       </c>
       <c r="C13">
-        <v>8.9462511108414</v>
+        <v>15.5442926456549</v>
       </c>
       <c r="D13">
-        <v>6.681262139194137</v>
+        <v>5.36094628156405</v>
       </c>
       <c r="E13">
-        <v>20.70542792865362</v>
+        <v>39.41055994726158</v>
       </c>
       <c r="F13">
-        <v>39.33669644997222</v>
+        <v>48.90132007164368</v>
       </c>
       <c r="I13">
-        <v>29.74482815217328</v>
+        <v>32.6274043995158</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.91714926070684</v>
+        <v>17.33654850639788</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.16098524004244</v>
+        <v>17.29102009127256</v>
       </c>
       <c r="C14">
-        <v>8.889923717012159</v>
+        <v>15.38518286679589</v>
       </c>
       <c r="D14">
-        <v>6.679346088097253</v>
+        <v>5.360828684368272</v>
       </c>
       <c r="E14">
-        <v>20.52361834643397</v>
+        <v>38.98998128968599</v>
       </c>
       <c r="F14">
-        <v>39.22416462248182</v>
+        <v>48.50955526735061</v>
       </c>
       <c r="I14">
-        <v>29.68935772435232</v>
+        <v>32.40850083427986</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.88005687099318</v>
+        <v>17.16983159057571</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.13264979017343</v>
+        <v>17.18652710542955</v>
       </c>
       <c r="C15">
-        <v>8.855294605755279</v>
+        <v>15.28740697638677</v>
       </c>
       <c r="D15">
-        <v>6.678170475090098</v>
+        <v>5.36078311220672</v>
       </c>
       <c r="E15">
-        <v>20.41148992871486</v>
+        <v>38.73185219141433</v>
       </c>
       <c r="F15">
-        <v>39.15521455182704</v>
+        <v>48.26936055091436</v>
       </c>
       <c r="I15">
-        <v>29.65541108466844</v>
+        <v>32.27448450928463</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.85735772757763</v>
+        <v>17.06733530848042</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.97006292632457</v>
+        <v>16.58115458994064</v>
       </c>
       <c r="C16">
-        <v>8.654955173816898</v>
+        <v>14.72200881155922</v>
       </c>
       <c r="D16">
-        <v>6.671402855880348</v>
+        <v>5.360900897374515</v>
       </c>
       <c r="E16">
-        <v>19.75717871070606</v>
+        <v>37.24388035284448</v>
       </c>
       <c r="F16">
-        <v>38.75985988446554</v>
+        <v>46.88913161934858</v>
       </c>
       <c r="I16">
-        <v>29.46137903951733</v>
+        <v>31.50737435822826</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.72764231236636</v>
+        <v>16.47397783701951</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.87019915457245</v>
+        <v>16.20371215246155</v>
       </c>
       <c r="C17">
-        <v>8.530422552459187</v>
+        <v>14.37038007631058</v>
       </c>
       <c r="D17">
-        <v>6.667223388641403</v>
+        <v>5.361284269542504</v>
       </c>
       <c r="E17">
-        <v>19.34526785555455</v>
+        <v>36.32235927755921</v>
       </c>
       <c r="F17">
-        <v>38.51722005245396</v>
+        <v>46.03877847900073</v>
       </c>
       <c r="I17">
-        <v>29.34283121471895</v>
+        <v>31.03741052782788</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.64843719397127</v>
+        <v>16.10441010484624</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.81274099451748</v>
+        <v>15.98430998211946</v>
       </c>
       <c r="C18">
-        <v>8.458219986730995</v>
+        <v>14.16628822433717</v>
       </c>
       <c r="D18">
-        <v>6.664809112956462</v>
+        <v>5.361609120503469</v>
       </c>
       <c r="E18">
-        <v>19.10447308472871</v>
+        <v>35.78879291075835</v>
       </c>
       <c r="F18">
-        <v>38.37766329313567</v>
+        <v>45.54825837334886</v>
       </c>
       <c r="I18">
-        <v>29.27483801834718</v>
+        <v>30.76728108795007</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.60303528837519</v>
+        <v>15.88972004159477</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.7932858390271</v>
+        <v>15.90962086819365</v>
       </c>
       <c r="C19">
-        <v>8.433677184982153</v>
+        <v>14.09686143819227</v>
       </c>
       <c r="D19">
-        <v>6.663989886885213</v>
+        <v>5.361736145625951</v>
       </c>
       <c r="E19">
-        <v>19.02227757645139</v>
+        <v>35.60750002112638</v>
       </c>
       <c r="F19">
-        <v>38.33041624344028</v>
+        <v>45.38192631190829</v>
       </c>
       <c r="I19">
-        <v>29.25185108178405</v>
+        <v>30.67584703630196</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.5876913241608</v>
+        <v>15.81665757570601</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.88083239359307</v>
+        <v>16.24412864311235</v>
       </c>
       <c r="C20">
-        <v>8.543739316717181</v>
+        <v>14.40800049789208</v>
       </c>
       <c r="D20">
-        <v>6.667669368414131</v>
+        <v>5.361232445415699</v>
       </c>
       <c r="E20">
-        <v>19.38951721170741</v>
+        <v>36.42081508020204</v>
       </c>
       <c r="F20">
-        <v>38.54305006859664</v>
+        <v>46.12944526754505</v>
       </c>
       <c r="I20">
-        <v>29.35543124451823</v>
+        <v>31.08741920777317</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.65685311165553</v>
+        <v>16.1439693558307</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.17456830442784</v>
+        <v>17.341014240059</v>
       </c>
       <c r="C21">
-        <v>8.906495016207911</v>
+        <v>15.43198266078457</v>
       </c>
       <c r="D21">
-        <v>6.679909289755733</v>
+        <v>5.360857644951928</v>
       </c>
       <c r="E21">
-        <v>20.57717954842836</v>
+        <v>39.11362005002682</v>
       </c>
       <c r="F21">
-        <v>39.25722256270556</v>
+        <v>48.62467274826277</v>
       </c>
       <c r="I21">
-        <v>29.70564443693237</v>
+        <v>32.47278342538087</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.89094752541226</v>
+        <v>17.21887851353253</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.36583591518843</v>
+        <v>18.0390925125532</v>
       </c>
       <c r="C22">
-        <v>9.137958790976167</v>
+        <v>16.08679886091797</v>
       </c>
       <c r="D22">
-        <v>6.687819903982395</v>
+        <v>5.36176920316111</v>
       </c>
       <c r="E22">
-        <v>21.31912438952093</v>
+        <v>40.84965592603908</v>
       </c>
       <c r="F22">
-        <v>39.72314191584195</v>
+        <v>50.24500936729092</v>
       </c>
       <c r="I22">
-        <v>29.93593717192304</v>
+        <v>33.38110989920658</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.04493178158797</v>
+        <v>17.90428187776623</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.26384241929139</v>
+        <v>17.66814294811719</v>
       </c>
       <c r="C23">
-        <v>9.014958637815861</v>
+        <v>15.73852344580084</v>
       </c>
       <c r="D23">
-        <v>6.683605832078857</v>
+        <v>5.361164534587827</v>
       </c>
       <c r="E23">
-        <v>20.92625772293325</v>
+        <v>39.92487711529154</v>
       </c>
       <c r="F23">
-        <v>39.47458940734337</v>
+        <v>49.38102271291484</v>
       </c>
       <c r="I23">
-        <v>29.81291158756348</v>
+        <v>32.89597241197468</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.9626754450661</v>
+        <v>17.53993895932058</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.87602524075133</v>
+        <v>16.22586385854237</v>
       </c>
       <c r="C24">
-        <v>8.537720692802237</v>
+        <v>14.39099835586309</v>
       </c>
       <c r="D24">
-        <v>6.667467776618668</v>
+        <v>5.361255552166011</v>
       </c>
       <c r="E24">
-        <v>19.36952448323944</v>
+        <v>36.37631503780356</v>
       </c>
       <c r="F24">
-        <v>38.53137249501634</v>
+        <v>46.08845994333008</v>
       </c>
       <c r="I24">
-        <v>29.34973426441891</v>
+        <v>31.06481011180629</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.6530478529569</v>
+        <v>16.1260915541431</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.45732393523934</v>
+        <v>14.58118611242233</v>
       </c>
       <c r="C25">
-        <v>8.001364724351724</v>
+        <v>12.86614165390903</v>
       </c>
       <c r="D25">
-        <v>6.649662225365259</v>
+        <v>5.365259745552621</v>
       </c>
       <c r="E25">
-        <v>17.59255190232296</v>
+        <v>32.41065330497135</v>
       </c>
       <c r="F25">
-        <v>37.51461691874086</v>
+        <v>42.48267416665779</v>
       </c>
       <c r="I25">
-        <v>28.85765071692624</v>
+        <v>29.09649406570546</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.3252195877032</v>
+        <v>14.51907031284351</v>
       </c>
       <c r="L25">
         <v>0</v>
